--- a/results/mp/logistic/corona/confidence/84/stop-words-desired-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-desired-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,27 +40,33 @@
     <t>name</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
@@ -70,51 +76,51 @@
     <t>love</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
@@ -124,13 +130,28 @@
     <t>better</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>safety</t>
@@ -139,28 +160,10 @@
     <t>share</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
   </si>
 </sst>
 </file>
@@ -518,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,10 +529,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -587,13 +590,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -605,10 +608,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -637,13 +640,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8493150684931506</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C4">
-        <v>248</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>248</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -655,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -679,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -687,13 +690,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8421052631578947</v>
+        <v>0.8253424657534246</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>241</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>241</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -705,19 +708,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.925</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -729,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -737,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8333333333333334</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,16 +761,16 @@
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.9322033898305084</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L6">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -779,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -787,13 +790,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8108108108108109</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -805,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.9069767441860465</v>
+        <v>0.8929503916449086</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>342</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>342</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -829,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -837,13 +840,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5608465608465608</v>
+        <v>0.5661375661375662</v>
       </c>
       <c r="C8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -855,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.9060052219321149</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L8">
-        <v>347</v>
+        <v>100</v>
       </c>
       <c r="M8">
-        <v>347</v>
+        <v>100</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -879,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -887,13 +890,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5135658914728682</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C9">
-        <v>265</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>265</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -905,19 +908,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>251</v>
+        <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.8936170212765957</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -929,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -937,13 +940,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3087248322147651</v>
+        <v>0.5465116279069767</v>
       </c>
       <c r="C10">
-        <v>46</v>
+        <v>282</v>
       </c>
       <c r="D10">
-        <v>46</v>
+        <v>282</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -955,45 +958,69 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>103</v>
+        <v>234</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.8888888888888888</v>
+        <v>0.875</v>
       </c>
       <c r="L10">
+        <v>112</v>
+      </c>
+      <c r="M10">
+        <v>112</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.4576271186440678</v>
+      </c>
+      <c r="C11">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>32</v>
       </c>
-      <c r="M10">
-        <v>32</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.8793103448275862</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L11">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="M11">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1005,21 +1032,45 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.2818791946308725</v>
+      </c>
+      <c r="C12">
+        <v>42</v>
+      </c>
+      <c r="D12">
+        <v>42</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>107</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K12">
-        <v>0.875</v>
+        <v>0.8604651162790697</v>
       </c>
       <c r="L12">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1031,21 +1082,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K13">
-        <v>0.875</v>
+        <v>0.8591549295774648</v>
       </c>
       <c r="L13">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="M13">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1057,21 +1108,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>0.8661971830985915</v>
+        <v>0.85625</v>
       </c>
       <c r="L14">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="M14">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1083,21 +1134,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.8658536585365854</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L15">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M15">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1109,21 +1160,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.8625</v>
+        <v>0.8490566037735849</v>
       </c>
       <c r="L16">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="M16">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1135,21 +1186,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K17">
-        <v>0.8584905660377359</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L17">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="M17">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1161,21 +1212,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K18">
-        <v>0.8333333333333334</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1187,21 +1238,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1213,12 +1264,12 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K20">
         <v>0.7916666666666666</v>
@@ -1244,16 +1295,16 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K21">
-        <v>0.7619047619047619</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L21">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M21">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1265,21 +1316,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>0.7280334728033473</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L22">
-        <v>174</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>174</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1291,21 +1342,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K23">
-        <v>0.7142857142857143</v>
+        <v>0.7470588235294118</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>254</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>254</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1317,21 +1368,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.711764705882353</v>
+        <v>0.7405857740585774</v>
       </c>
       <c r="L24">
-        <v>242</v>
+        <v>177</v>
       </c>
       <c r="M24">
-        <v>242</v>
+        <v>177</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1343,21 +1394,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>98</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>0.7058823529411765</v>
+        <v>0.6802721088435374</v>
       </c>
       <c r="L25">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="M25">
-        <v>36</v>
+        <v>201</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1366,24 +1417,24 @@
         <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>15</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>0.7</v>
+        <v>0.6629213483146067</v>
       </c>
       <c r="L26">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M26">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1395,21 +1446,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.6983050847457627</v>
+        <v>0.65</v>
       </c>
       <c r="L27">
-        <v>206</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>206</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1421,12 +1472,12 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K28">
         <v>0.648936170212766</v>
@@ -1452,16 +1503,16 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.6404494382022472</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L29">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M29">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1473,21 +1524,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.6153846153846154</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="L30">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1499,21 +1550,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.5777777777777777</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1525,21 +1576,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>0.5512820512820513</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="L32">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1551,15 +1602,15 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.5205479452054794</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L33">
         <v>38</v>
@@ -1577,33 +1628,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="10:17">
-      <c r="J34" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K34">
-        <v>0.4375</v>
-      </c>
-      <c r="L34">
-        <v>28</v>
-      </c>
-      <c r="M34">
-        <v>28</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
